--- a/Output/NMA_results/weibull NMA RE.xlsx
+++ b/Output/NMA_results/weibull NMA RE.xlsx
@@ -15,113 +15,269 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.eff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2.5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X97.5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summaryRE.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summaryRE.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[2,1]</t>
   </si>
   <si>
     <t xml:space="preserve">d[1,2]</t>
   </si>
   <si>
+    <t xml:space="preserve">d[2,2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">d[1,3]</t>
   </si>
   <si>
+    <t xml:space="preserve">d[2,3]</t>
+  </si>
+  <si>
     <t xml:space="preserve">d[1,4]</t>
   </si>
   <si>
-    <t xml:space="preserve">d[2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d[2,3]</t>
-  </si>
-  <si>
     <t xml:space="preserve">d[2,4]</t>
   </si>
   <si>
+    <t xml:space="preserve">mean.y[1,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[1,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,3,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[1,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[1,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,3,2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">mu[1,1]</t>
   </si>
   <si>
+    <t xml:space="preserve">mu[2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[3,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[4,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[5,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[6,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[7,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[8,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[9,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[10,1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">mu[1,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[2,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[2,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[3,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[3,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[4,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[4,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[5,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[5,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[6,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[6,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[7,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[7,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[8,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[8,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[9,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[9,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[10,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[10,2]</t>
   </si>
   <si>
@@ -129,159 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">mu_mean[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,3,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,3,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deviance</t>
   </si>
   <si>
     <t xml:space="preserve">treatment</t>
@@ -737,31 +740,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.19878648362</v>
+        <v>-2.47459799837797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239905613003881</v>
+        <v>0.0604649580374603</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6823075</v>
+        <v>-2.58341044398793</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3212</v>
+        <v>-2.5157354633957</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1988</v>
+        <v>-2.47739664215754</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07765</v>
+        <v>-2.43502824461786</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2777</v>
+        <v>-2.35196985212272</v>
       </c>
       <c r="I2" t="n">
-        <v>1.00134915151224</v>
+        <v>1002</v>
       </c>
       <c r="J2" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3">
@@ -769,31 +772,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.33037032884835</v>
+        <v>0.0311264723963143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20435871384024</v>
+        <v>0.0345260439837939</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7746025</v>
+        <v>-0.0360873639123971</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.445025</v>
+        <v>0.00723681399302825</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3195</v>
+        <v>0.0318511360939685</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1976</v>
+        <v>0.0540038939187927</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0409412500000001</v>
+        <v>0.0980133722728181</v>
       </c>
       <c r="I3" t="n">
-        <v>1.00097843158673</v>
+        <v>1002</v>
       </c>
       <c r="J3" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4">
@@ -801,31 +804,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2276203764155</v>
+        <v>-2.6841574235274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19452061048539</v>
+        <v>0.23560745977505</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.652305</v>
+        <v>-3.16888987262548</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3322</v>
+        <v>-2.81073524441033</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2141</v>
+        <v>-2.67945501451485</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.103</v>
+        <v>-2.55020388593033</v>
       </c>
       <c r="H4" t="n">
-        <v>0.115605</v>
+        <v>-2.20440954444458</v>
       </c>
       <c r="I4" t="n">
-        <v>1.00363736307253</v>
+        <v>1002</v>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5">
@@ -833,31 +836,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.001439957473765</v>
+        <v>0.0530325135301985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.088877913935981</v>
+        <v>0.0773375429172153</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1832</v>
+        <v>-0.100980527426734</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05049</v>
+        <v>0.00423420740626943</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00099375</v>
+        <v>0.0489179090598349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0474425</v>
+        <v>0.0999421713952032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1733025</v>
+        <v>0.210287292670229</v>
       </c>
       <c r="I5" t="n">
-        <v>1.00289291604646</v>
+        <v>1002</v>
       </c>
       <c r="J5" t="n">
-        <v>780</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -865,31 +868,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.128999603519425</v>
+        <v>-2.75816217380328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0930441876469211</v>
+        <v>0.1868545424692</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04925</v>
+        <v>-3.12958889156425</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06881</v>
+        <v>-2.88373332441705</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1277</v>
+        <v>-2.76107953423419</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1887</v>
+        <v>-2.6395358877538</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3145</v>
+        <v>-2.37066299323386</v>
       </c>
       <c r="I6" t="n">
-        <v>1.00208329882276</v>
+        <v>1002</v>
       </c>
       <c r="J6" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7">
@@ -897,31 +900,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01879640670592</v>
+        <v>0.135099877655892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0861484509307152</v>
+        <v>0.079358898551716</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.19</v>
+        <v>-0.0126528753646952</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0734325</v>
+        <v>0.0767752417075851</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02009</v>
+        <v>0.129335833343055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0373125</v>
+        <v>0.19640351449116</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1523025</v>
+        <v>0.283238557321862</v>
       </c>
       <c r="I7" t="n">
-        <v>1.00334780567986</v>
+        <v>1002</v>
       </c>
       <c r="J7" t="n">
-        <v>630</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8">
@@ -929,31 +932,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.38230325</v>
+        <v>-2.72430955519932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.100184424250524</v>
+        <v>0.177640917439572</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.579</v>
+        <v>-3.09161545608071</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.45</v>
+        <v>-2.81955690245142</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.382</v>
+        <v>-2.72627165359122</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.315</v>
+        <v>-2.62409859513678</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.188</v>
+        <v>-2.34946235807621</v>
       </c>
       <c r="I8" t="n">
-        <v>1.00152972550561</v>
+        <v>1002</v>
       </c>
       <c r="J8" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9">
@@ -961,31 +964,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07740410780365</v>
+        <v>-0.00897101734624067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0645064146936592</v>
+        <v>0.0783016326351207</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04767</v>
+        <v>-0.174418566371042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03406</v>
+        <v>-0.0566778725360292</v>
       </c>
       <c r="F9" t="n">
-        <v>0.076525</v>
+        <v>-0.00344158956036972</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1199</v>
+        <v>0.0399221992572866</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2059</v>
+        <v>0.134807530350652</v>
       </c>
       <c r="I9" t="n">
-        <v>1.00295197000183</v>
+        <v>1002</v>
       </c>
       <c r="J9" t="n">
-        <v>760</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10">
@@ -993,31 +996,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.176114925</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166980280954369</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.504</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.289</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.176</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.064</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.847</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.00103839211437</v>
+        <v>1002</v>
       </c>
       <c r="J10" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11">
@@ -1025,31 +1028,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1700092645077</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987512823454161</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02429025</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1041</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1701</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.00156646749154</v>
+        <v>1002</v>
       </c>
       <c r="J11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12">
@@ -1057,31 +1060,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.467298875</v>
+        <v>-0.209559425149434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.105773642039584</v>
+        <v>0.230156653469637</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.675</v>
+        <v>-0.684365575879439</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.539</v>
+        <v>-0.328018720043662</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.467</v>
+        <v>-0.199553653388093</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.396</v>
+        <v>-0.0704467336697967</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.262</v>
+        <v>0.251112265414898</v>
       </c>
       <c r="I12" t="n">
-        <v>1.00112448047226</v>
+        <v>1002</v>
       </c>
       <c r="J12" t="n">
-        <v>9900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13">
@@ -1089,31 +1092,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.024394178627625</v>
+        <v>0.0219060411338843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0721988358503917</v>
+        <v>0.0741056279364452</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1663</v>
+        <v>-0.117431354487728</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07324</v>
+        <v>-0.0266217695564751</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02375</v>
+        <v>0.0201606527000859</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0241925</v>
+        <v>0.0718472013531806</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1169</v>
+        <v>0.173475311967769</v>
       </c>
       <c r="I13" t="n">
-        <v>1.00167171249757</v>
+        <v>1002</v>
       </c>
       <c r="J13" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14">
@@ -1121,31 +1124,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.513493425</v>
+        <v>-0.283564175425304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.25012827261345</v>
+        <v>0.196953659266723</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.995</v>
+        <v>-0.690145297928423</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.683</v>
+        <v>-0.425427752271496</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.517</v>
+        <v>-0.289594567982743</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.349</v>
+        <v>-0.148881672968362</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.013975</v>
+        <v>0.106778445494539</v>
       </c>
       <c r="I14" t="n">
-        <v>1.00181777915922</v>
+        <v>1002</v>
       </c>
       <c r="J14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15">
@@ -1153,31 +1156,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0318514038387825</v>
+        <v>0.103973405259578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.121198901508353</v>
+        <v>0.0862053484335379</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2708</v>
+        <v>-0.0468436102226809</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1138</v>
+        <v>0.0410326183674537</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.031545</v>
+        <v>0.102846579166347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0496075</v>
+        <v>0.16921439932022</v>
       </c>
       <c r="H15" t="n">
-        <v>0.206305</v>
+        <v>0.271244197046589</v>
       </c>
       <c r="I15" t="n">
-        <v>1.00117787384858</v>
+        <v>1002</v>
       </c>
       <c r="J15" t="n">
-        <v>7300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16">
@@ -1185,31 +1188,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.255579225</v>
+        <v>-0.249711556821345</v>
       </c>
       <c r="C16" t="n">
-        <v>0.232740567537535</v>
+        <v>0.183676500440443</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.707</v>
+        <v>-0.63955916670982</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.412</v>
+        <v>-0.33759208823471</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.257</v>
+        <v>-0.24989297365276</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.101</v>
+        <v>-0.150357760652064</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.796</v>
+        <v>0.13636467488845</v>
       </c>
       <c r="I16" t="n">
-        <v>1.00339803796915</v>
+        <v>1002</v>
       </c>
       <c r="J16" t="n">
-        <v>620</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17">
@@ -1217,31 +1220,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.175272656097325</v>
+        <v>-0.0400974897425549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.123559651913225</v>
+        <v>0.0879247318250276</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.063973</v>
+        <v>-0.231624490431423</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0913075</v>
+        <v>-0.0911149535475833</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1744</v>
+        <v>-0.0379958416247284</v>
       </c>
       <c r="G17" t="n">
-        <v>0.258</v>
+        <v>0.0204519192566636</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4201</v>
+        <v>0.120191225746949</v>
       </c>
       <c r="I17" t="n">
-        <v>1.00228322400537</v>
+        <v>1002</v>
       </c>
       <c r="J17" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18">
@@ -1249,31 +1252,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.987219025</v>
+        <v>-2.30769890968078</v>
       </c>
       <c r="C18" t="n">
-        <v>0.327928634740528</v>
+        <v>0.0968445905631696</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.632025</v>
+        <v>-2.48668086364645</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.206</v>
+        <v>-2.37560820021088</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.987</v>
+        <v>-2.30787220178168</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.767</v>
+        <v>-2.24296399521714</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.344</v>
+        <v>-2.11412409662095</v>
       </c>
       <c r="I18" t="n">
-        <v>1.00115280030818</v>
+        <v>1002</v>
       </c>
       <c r="J18" t="n">
-        <v>8400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19">
@@ -1281,31 +1284,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1562328193368</v>
+        <v>-3.12624334187016</v>
       </c>
       <c r="C19" t="n">
-        <v>0.154482851174715</v>
+        <v>0.158236258339603</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1429025</v>
+        <v>-3.43113975422046</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0516925</v>
+        <v>-3.22986956246024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1542</v>
+        <v>-3.12190565507391</v>
       </c>
       <c r="G19" t="n">
-        <v>0.259725</v>
+        <v>-3.02165837375323</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4601</v>
+        <v>-2.80963810083448</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0009883798173</v>
+        <v>1002</v>
       </c>
       <c r="J19" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20">
@@ -1313,31 +1316,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.770152625</v>
+        <v>-2.40026859208746</v>
       </c>
       <c r="C20" t="n">
-        <v>0.135350207323724</v>
+        <v>0.103244099075323</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.038</v>
+        <v>-2.6077824252039</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.86</v>
+        <v>-2.47057497426826</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.769</v>
+        <v>-2.39645380224458</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.679</v>
+        <v>-2.33200756425649</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.507975</v>
+        <v>-2.19339718212936</v>
       </c>
       <c r="I20" t="n">
-        <v>1.00099197555021</v>
+        <v>1002</v>
       </c>
       <c r="J20" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21">
@@ -1345,31 +1348,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.041314736269075</v>
+        <v>-2.41039420735569</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0711393519297686</v>
+        <v>0.221062314548366</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1806</v>
+        <v>-2.8439037709216</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08867</v>
+        <v>-2.55556890118412</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04079</v>
+        <v>-2.41234961965084</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006177</v>
+        <v>-2.26538928813087</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0985810000000001</v>
+        <v>-1.97273077995874</v>
       </c>
       <c r="I21" t="n">
-        <v>1.00097356411537</v>
+        <v>1002</v>
       </c>
       <c r="J21" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
@@ -1377,31 +1380,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.836597025</v>
+        <v>-2.1546337521495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0909161593439259</v>
+        <v>0.221469365936827</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.014</v>
+        <v>-2.58835781510724</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.898</v>
+        <v>-2.29631188823151</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.836</v>
+        <v>-2.15955569973488</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.775</v>
+        <v>-2.01092922928364</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.659</v>
+        <v>-1.70954917255432</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0011713126938</v>
+        <v>1002</v>
       </c>
       <c r="J22" t="n">
-        <v>7600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23">
@@ -1409,31 +1412,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.18947758475</v>
+        <v>-3.01964599529597</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0400575459796755</v>
+        <v>0.265446170233682</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2686</v>
+        <v>-3.52984726564205</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2164</v>
+        <v>-3.2016127773702</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1891</v>
+        <v>-3.02706678277266</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1624</v>
+        <v>-2.83252406117398</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1117</v>
+        <v>-2.4891647644192</v>
       </c>
       <c r="I23" t="n">
-        <v>1.00182849811008</v>
+        <v>1002</v>
       </c>
       <c r="J23" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24">
@@ -1441,31 +1444,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.77479575</v>
+        <v>-2.71266432344153</v>
       </c>
       <c r="C24" t="n">
-        <v>0.173709224004657</v>
+        <v>0.133209452911955</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.123</v>
+        <v>-2.98907876490307</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.89</v>
+        <v>-2.79522438584661</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.772</v>
+        <v>-2.71240773032564</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.657</v>
+        <v>-2.62136536286696</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.439975</v>
+        <v>-2.44698511009238</v>
       </c>
       <c r="I24" t="n">
-        <v>1.00386247907731</v>
+        <v>1002</v>
       </c>
       <c r="J24" t="n">
-        <v>520</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25">
@@ -1473,31 +1476,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14674017445925</v>
+        <v>-1.84457848082059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.086974912467666</v>
+        <v>0.0703726155566047</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02412175</v>
+        <v>-1.97979872754344</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0877175</v>
+        <v>-1.89258105482916</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1469</v>
+        <v>-1.84482642634434</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2056</v>
+        <v>-1.7954588312909</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3173</v>
+        <v>-1.71013518315349</v>
       </c>
       <c r="I25" t="n">
-        <v>1.00201775874393</v>
+        <v>1002</v>
       </c>
       <c r="J25" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26">
@@ -1505,31 +1508,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.0397349</v>
+        <v>-2.74332688887918</v>
       </c>
       <c r="C26" t="n">
-        <v>0.212750420306338</v>
+        <v>0.147982379717361</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.454</v>
+        <v>-3.03830235683199</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.182</v>
+        <v>-2.84272451601279</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.042</v>
+        <v>-2.74427877020133</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.897</v>
+        <v>-2.64746365110757</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.622</v>
+        <v>-2.45673761130002</v>
       </c>
       <c r="I26" t="n">
-        <v>1.00112319993392</v>
+        <v>1002</v>
       </c>
       <c r="J26" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27">
@@ -1537,31 +1540,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.076475067488875</v>
+        <v>-2.02652549219885</v>
       </c>
       <c r="C27" t="n">
-        <v>0.113982734554397</v>
+        <v>0.219184187898553</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3009</v>
+        <v>-2.44472611647299</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.153225</v>
+        <v>-2.16952811304843</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07592</v>
+        <v>-2.03247156405189</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00045385</v>
+        <v>-1.8749769529745</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1459</v>
+        <v>-1.59509982622565</v>
       </c>
       <c r="I27" t="n">
-        <v>1.00098480718404</v>
+        <v>1002</v>
       </c>
       <c r="J27" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28">
@@ -1569,31 +1572,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.520330525</v>
+        <v>-2.51223493611961</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0674241538963419</v>
+        <v>0.11715870775572</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.652</v>
+        <v>-2.75102881860888</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.566</v>
+        <v>-2.58914415163363</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.5205</v>
+        <v>-2.51083197336232</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.475</v>
+        <v>-2.43150215662808</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.387</v>
+        <v>-2.286499082887</v>
       </c>
       <c r="I28" t="n">
-        <v>1.00180154585355</v>
+        <v>1002</v>
       </c>
       <c r="J28" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29">
@@ -1601,31 +1604,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0362145525702575</v>
+        <v>-3.4314444586884</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0366407950739774</v>
+        <v>0.2017036343015</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.03701025</v>
+        <v>-3.81656030480274</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01173</v>
+        <v>-3.55958410372543</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03662</v>
+        <v>-3.43145270119713</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06086</v>
+        <v>-3.30157978309857</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1074</v>
+        <v>-3.04094647171115</v>
       </c>
       <c r="I29" t="n">
-        <v>1.00123957630142</v>
+        <v>1002</v>
       </c>
       <c r="J29" t="n">
-        <v>5600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30">
@@ -1633,31 +1636,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.38230325</v>
+        <v>-2.57252711954939</v>
       </c>
       <c r="C30" t="n">
-        <v>0.100184424250524</v>
+        <v>0.0881068199154545</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.579</v>
+        <v>-2.73482038240714</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.45</v>
+        <v>-2.63726927624104</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.382</v>
+        <v>-2.57636537943139</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.315</v>
+        <v>-2.51283681783664</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.188</v>
+        <v>-2.39142554439437</v>
       </c>
       <c r="I30" t="n">
-        <v>1.00152972550561</v>
+        <v>1002</v>
       </c>
       <c r="J30" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31">
@@ -1665,31 +1668,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07740410780365</v>
+        <v>-2.71733762646899</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0645064146936592</v>
+        <v>0.221655349979057</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04767</v>
+        <v>-3.15645635845955</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03406</v>
+        <v>-2.85997923285348</v>
       </c>
       <c r="F31" t="n">
-        <v>0.076525</v>
+        <v>-2.71511871948219</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1199</v>
+        <v>-2.58031893111269</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2059</v>
+        <v>-2.24220509426132</v>
       </c>
       <c r="I31" t="n">
-        <v>1.00295197000183</v>
+        <v>1002</v>
       </c>
       <c r="J31" t="n">
-        <v>760</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="32">
@@ -1697,31 +1700,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.592631925</v>
+        <v>-2.53898558987635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.113930753974561</v>
+        <v>0.225666447952311</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.817</v>
+        <v>-2.99431836456533</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.669</v>
+        <v>-2.68186120398752</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.592</v>
+        <v>-2.53513042598038</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.516</v>
+        <v>-2.39130468674346</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.368</v>
+        <v>-2.1133474242389</v>
       </c>
       <c r="I32" t="n">
-        <v>1.00143216440452</v>
+        <v>1002</v>
       </c>
       <c r="J32" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33">
@@ -1729,31 +1732,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>0.062849337228675</v>
+        <v>-3.49011524336913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0535904087225593</v>
+        <v>0.342620683084986</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0428005</v>
+        <v>-4.1527313674725</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02661</v>
+        <v>-3.73079837332549</v>
       </c>
       <c r="F33" t="n">
-        <v>0.063005</v>
+        <v>-3.47607842871855</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09898</v>
+        <v>-3.2610741466909</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1679025</v>
+        <v>-2.84511404871858</v>
       </c>
       <c r="I33" t="n">
-        <v>1.00274913176859</v>
+        <v>1002</v>
       </c>
       <c r="J33" t="n">
-        <v>850</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34">
@@ -1761,31 +1764,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>-3.176114925</v>
+        <v>-2.94174470742513</v>
       </c>
       <c r="C34" t="n">
-        <v>0.166980280954369</v>
+        <v>0.151898368664362</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.504</v>
+        <v>-3.2385070088353</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.289</v>
+        <v>-3.04760179432399</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.176</v>
+        <v>-2.94671049334036</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.064</v>
+        <v>-2.83624685302182</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.847</v>
+        <v>-2.65317970735851</v>
       </c>
       <c r="I34" t="n">
-        <v>1.00103839211437</v>
+        <v>1002</v>
       </c>
       <c r="J34" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35">
@@ -1793,31 +1796,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1700092645077</v>
+        <v>-2.04638858949342</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0987512823454161</v>
+        <v>0.0717064547600876</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.02429025</v>
+        <v>-2.18230902645214</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1041</v>
+        <v>-2.09369022893466</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1701</v>
+        <v>-2.04725909023071</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2368</v>
+        <v>-1.99885426023089</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3625</v>
+        <v>-1.90370135590651</v>
       </c>
       <c r="I35" t="n">
-        <v>1.00156646749154</v>
+        <v>1002</v>
       </c>
       <c r="J35" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="36">
@@ -1825,31 +1828,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.521330175</v>
+        <v>-2.79275349465188</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199920964181517</v>
+        <v>0.146186114069012</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.918025</v>
+        <v>-3.07567951729897</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.654</v>
+        <v>-2.89089279175373</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.518</v>
+        <v>-2.78733216774745</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.386</v>
+        <v>-2.69736760173054</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.139</v>
+        <v>-2.5024269321503</v>
       </c>
       <c r="I36" t="n">
-        <v>1.00117287550001</v>
+        <v>1002</v>
       </c>
       <c r="J36" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="37">
@@ -1857,31 +1860,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>0.300472252355</v>
+        <v>-2.36115824180924</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0957867868629232</v>
+        <v>0.235895663698628</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1128</v>
+        <v>-2.80387962032619</v>
       </c>
       <c r="E37" t="n">
-        <v>0.235775</v>
+        <v>-2.53352690532015</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3002</v>
+        <v>-2.36010748505917</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3646</v>
+        <v>-2.19313159182453</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4885025</v>
+        <v>-1.90450658415678</v>
       </c>
       <c r="I37" t="n">
-        <v>1.00097354486496</v>
+        <v>1002</v>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38">
@@ -1889,31 +1892,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.467298875</v>
+        <v>-2.84149738222667</v>
       </c>
       <c r="C38" t="n">
-        <v>0.105773642039584</v>
+        <v>0.115485490652773</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.675</v>
+        <v>-3.05949369802705</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.539</v>
+        <v>-2.9252143828826</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.467</v>
+        <v>-2.84393719124917</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.396</v>
+        <v>-2.75922054011159</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.262</v>
+        <v>-2.62262624544313</v>
       </c>
       <c r="I38" t="n">
-        <v>1.00112448047226</v>
+        <v>1002</v>
       </c>
       <c r="J38" t="n">
-        <v>9900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39">
@@ -1921,31 +1924,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.024394178627625</v>
+        <v>0.0544760808855297</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0721988358503917</v>
+        <v>0.0691772081340582</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1663</v>
+        <v>-0.0729289766747089</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.07324</v>
+        <v>0.0077359920371744</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.02375</v>
+        <v>0.0498040952114871</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0241925</v>
+        <v>0.0977122444377271</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1169</v>
+        <v>0.200394446217231</v>
       </c>
       <c r="I39" t="n">
-        <v>1.00167171249757</v>
+        <v>1002</v>
       </c>
       <c r="J39" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40">
@@ -1953,31 +1956,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.6249252</v>
+        <v>0.156619636579727</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0862768630479078</v>
+        <v>0.0950531065091728</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.795</v>
+        <v>-0.0363022715768955</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.683</v>
+        <v>0.0918432125051222</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.625</v>
+        <v>0.157597199949974</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.567</v>
+        <v>0.222226266396792</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.455</v>
+        <v>0.335102986102916</v>
       </c>
       <c r="I40" t="n">
-        <v>1.00100181313284</v>
+        <v>1002</v>
       </c>
       <c r="J40" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41">
@@ -1985,31 +1988,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.042207373753975</v>
+        <v>-0.0270599532219494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0662612754889347</v>
+        <v>0.0704578839634988</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1713</v>
+        <v>-0.171776774761674</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.08702</v>
+        <v>-0.0719292913602564</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.04232</v>
+        <v>-0.0271447072129032</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00178075</v>
+        <v>0.0193603221982781</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0877822500000001</v>
+        <v>0.109903635357159</v>
       </c>
       <c r="I41" t="n">
-        <v>1.00113015324809</v>
+        <v>1002</v>
       </c>
       <c r="J41" t="n">
-        <v>9600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42">
@@ -2017,31 +2020,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.513493425</v>
+        <v>-0.0135230811468333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25012827261345</v>
+        <v>0.133821764060802</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.995</v>
+        <v>-0.286302806244853</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.683</v>
+        <v>-0.103253806781867</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.517</v>
+        <v>-0.011438045793175</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.349</v>
+        <v>0.0831671836177954</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.013975</v>
+        <v>0.251350185043872</v>
       </c>
       <c r="I42" t="n">
-        <v>1.00181777915922</v>
+        <v>1002</v>
       </c>
       <c r="J42" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43">
@@ -2049,31 +2052,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0318514038387825</v>
+        <v>0.155928202504637</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121198901508353</v>
+        <v>0.124718336841856</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2708</v>
+        <v>-0.094449882742148</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1138</v>
+        <v>0.0685865818495134</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.031545</v>
+        <v>0.155727536195177</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0496075</v>
+        <v>0.242196391808754</v>
       </c>
       <c r="H43" t="n">
-        <v>0.206305</v>
+        <v>0.389787296077768</v>
       </c>
       <c r="I43" t="n">
-        <v>1.00117787384858</v>
+        <v>1002</v>
       </c>
       <c r="J43" t="n">
-        <v>7300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="44">
@@ -2081,31 +2084,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.761308075</v>
+        <v>0.179934034083428</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226006047116283</v>
+        <v>0.0990106838893184</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.208</v>
+        <v>-0.00611522484268355</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.911</v>
+        <v>0.111737725366051</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.76</v>
+        <v>0.176777155885215</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.609</v>
+        <v>0.245915330403059</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.325</v>
+        <v>0.365550806061723</v>
       </c>
       <c r="I44" t="n">
-        <v>1.00124378317561</v>
+        <v>1002</v>
       </c>
       <c r="J44" t="n">
-        <v>5600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="45">
@@ -2113,31 +2116,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.023012883574775</v>
+        <v>-0.0491338452400724</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124278082791101</v>
+        <v>0.0759646519995635</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2648</v>
+        <v>-0.202491488152596</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1066</v>
+        <v>-0.0984023414854398</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.02406</v>
+        <v>-0.0496952370840065</v>
       </c>
       <c r="G45" t="n">
-        <v>0.059765</v>
+        <v>0.00212423707476776</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2268</v>
+        <v>0.103543508382117</v>
       </c>
       <c r="I45" t="n">
-        <v>1.00112208722223</v>
+        <v>1002</v>
       </c>
       <c r="J45" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="46">
@@ -2145,31 +2148,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.255579225</v>
+        <v>-0.198972205665938</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232740567537535</v>
+        <v>0.035737177108856</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.707</v>
+        <v>-0.268857624560563</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.412</v>
+        <v>-0.223348814592068</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.257</v>
+        <v>-0.199339593728303</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.101</v>
+        <v>-0.174673141784138</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.796</v>
+        <v>-0.129828667876318</v>
       </c>
       <c r="I46" t="n">
-        <v>1.00339803796915</v>
+        <v>1002</v>
       </c>
       <c r="J46" t="n">
-        <v>620</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47">
@@ -2177,31 +2180,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.175272656097325</v>
+        <v>0.131944032553373</v>
       </c>
       <c r="C47" t="n">
-        <v>0.123559651913225</v>
+        <v>0.0855398281506239</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.063973</v>
+        <v>-0.0193059708068058</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0913075</v>
+        <v>0.0699737267644035</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1744</v>
+        <v>0.133647412161583</v>
       </c>
       <c r="G47" t="n">
-        <v>0.258</v>
+        <v>0.187806723085706</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4201</v>
+        <v>0.311367784801602</v>
       </c>
       <c r="I47" t="n">
-        <v>1.00228322400537</v>
+        <v>1002</v>
       </c>
       <c r="J47" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="48">
@@ -2209,31 +2212,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.633108525</v>
+        <v>-0.0789481773687588</v>
       </c>
       <c r="C48" t="n">
-        <v>0.262041681118463</v>
+        <v>0.0931365684557471</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.165</v>
+        <v>-0.269244343694043</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.807</v>
+        <v>-0.137448778901514</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.626</v>
+        <v>-0.0778210353120589</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.454</v>
+        <v>-0.0190411594457706</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.137</v>
+        <v>0.0933240020683589</v>
       </c>
       <c r="I48" t="n">
-        <v>1.00266730630897</v>
+        <v>1002</v>
       </c>
       <c r="J48" t="n">
-        <v>890</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49">
@@ -2241,31 +2244,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1335447842534</v>
+        <v>0.0558457586613421</v>
       </c>
       <c r="C49" t="n">
-        <v>0.110286470059227</v>
+        <v>0.0487545572154935</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.08044125</v>
+        <v>-0.0383275095736527</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0589375</v>
+        <v>0.0235435071939995</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1338</v>
+        <v>0.0557711048164136</v>
       </c>
       <c r="G49" t="n">
-        <v>0.207</v>
+        <v>0.0893750006403229</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3521</v>
+        <v>0.150792910761403</v>
       </c>
       <c r="I49" t="n">
-        <v>1.00221278755886</v>
+        <v>1002</v>
       </c>
       <c r="J49" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50">
@@ -2273,31 +2276,31 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.987219025</v>
+        <v>0.262334543889467</v>
       </c>
       <c r="C50" t="n">
-        <v>0.327928634740528</v>
+        <v>0.0917561590221124</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.632025</v>
+        <v>0.0861351585307081</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.206</v>
+        <v>0.202779368379376</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.987</v>
+        <v>0.261753295122805</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.767</v>
+        <v>0.323347608877204</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.344</v>
+        <v>0.442485044620686</v>
       </c>
       <c r="I50" t="n">
-        <v>1.00115280030818</v>
+        <v>1002</v>
       </c>
       <c r="J50" t="n">
-        <v>8400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2308,31 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1562328193368</v>
+        <v>-0.0627416635435433</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154482851174715</v>
+        <v>0.0819704285504758</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1429025</v>
+        <v>-0.231652711850629</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0516925</v>
+        <v>-0.119549222536476</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1542</v>
+        <v>-0.0624822135197579</v>
       </c>
       <c r="G51" t="n">
-        <v>0.259725</v>
+        <v>-0.00749347893537902</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4601</v>
+        <v>0.0955876988086876</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0009883798173</v>
+        <v>1002</v>
       </c>
       <c r="J51" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52">
@@ -2337,31 +2340,31 @@
         <v>60</v>
       </c>
       <c r="B52" t="n">
-        <v>-3.51303865</v>
+        <v>-0.0387160840200296</v>
       </c>
       <c r="C52" t="n">
-        <v>0.412112111707473</v>
+        <v>0.142586575474112</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.363025</v>
+        <v>-0.320128187970574</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.78</v>
+        <v>-0.13796465553669</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.497</v>
+        <v>-0.0389724917415269</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.23</v>
+        <v>0.0562168215192078</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.745975</v>
+        <v>0.243044002415208</v>
       </c>
       <c r="I52" t="n">
-        <v>1.00213705632203</v>
+        <v>1002</v>
       </c>
       <c r="J52" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="53">
@@ -2369,31 +2372,31 @@
         <v>61</v>
       </c>
       <c r="B53" t="n">
-        <v>0.248431771609</v>
+        <v>0.107750910196403</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1609316455381</v>
+        <v>0.101575999864505</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0627605</v>
+        <v>-0.0945024455702087</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1402</v>
+        <v>0.0400850477448621</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2474</v>
+        <v>0.105234774704325</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3554</v>
+        <v>0.176865594201241</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5704</v>
+        <v>0.311242382490989</v>
       </c>
       <c r="I53" t="n">
-        <v>1.00160908350293</v>
+        <v>1002</v>
       </c>
       <c r="J53" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54">
@@ -2401,31 +2404,31 @@
         <v>62</v>
       </c>
       <c r="B54" t="n">
-        <v>-2.770152625</v>
+        <v>0.270766059059722</v>
       </c>
       <c r="C54" t="n">
-        <v>0.135350207323724</v>
+        <v>0.122072751721799</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.038</v>
+        <v>0.0209953372653416</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.86</v>
+        <v>0.195823017110197</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.769</v>
+        <v>0.273439743412511</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.679</v>
+        <v>0.349415417513558</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.507975</v>
+        <v>0.500092349855733</v>
       </c>
       <c r="I54" t="n">
-        <v>1.00099197555021</v>
+        <v>1002</v>
       </c>
       <c r="J54" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55">
@@ -2433,31 +2436,31 @@
         <v>63</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.041314736269075</v>
+        <v>0.0559373242138766</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0711393519297686</v>
+        <v>0.079715477264942</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1806</v>
+        <v>-0.0968470936187229</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08867</v>
+        <v>-0.000597351866938392</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.04079</v>
+        <v>0.0574515238718704</v>
       </c>
       <c r="G55" t="n">
-        <v>0.006177</v>
+        <v>0.110143952459398</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0985810000000001</v>
+        <v>0.205376928387699</v>
       </c>
       <c r="I55" t="n">
-        <v>1.00097356411537</v>
+        <v>1002</v>
       </c>
       <c r="J55" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56">
@@ -2465,31 +2468,31 @@
         <v>64</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.0355375</v>
+        <v>-0.176047619712159</v>
       </c>
       <c r="C56" t="n">
-        <v>0.162310550370637</v>
+        <v>0.0367756308539369</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.356</v>
+        <v>-0.248664506076654</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.143</v>
+        <v>-0.200235029429972</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.035</v>
+        <v>-0.175693978300375</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.927</v>
+        <v>-0.149211344261012</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.719</v>
+        <v>-0.10943916228669</v>
       </c>
       <c r="I56" t="n">
-        <v>1.0015836070964</v>
+        <v>1002</v>
       </c>
       <c r="J56" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="57">
@@ -2497,31 +2500,31 @@
         <v>65</v>
       </c>
       <c r="B57" t="n">
-        <v>0.081917246230825</v>
+        <v>0.250586086958303</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0865336597880852</v>
+        <v>0.0952081315573252</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0876105</v>
+        <v>0.0739478548174974</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0236075</v>
+        <v>0.183459628899651</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08134</v>
+        <v>0.248978073331883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1403</v>
+        <v>0.313841956821295</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2525</v>
+        <v>0.44437503724927</v>
       </c>
       <c r="I57" t="n">
-        <v>1.00228063217978</v>
+        <v>1002</v>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58">
@@ -2529,31 +2532,31 @@
         <v>66</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.8957932</v>
+        <v>0.0470595699800997</v>
       </c>
       <c r="C58" t="n">
-        <v>0.129400853545417</v>
+        <v>0.116570339464176</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.147</v>
+        <v>-0.171677198899948</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.983</v>
+        <v>-0.0318961275521122</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.896</v>
+        <v>0.0461533777253731</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.809</v>
+        <v>0.127408998470016</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.640975</v>
+        <v>0.279241144831148</v>
       </c>
       <c r="I58" t="n">
-        <v>1.00098842249368</v>
+        <v>1002</v>
       </c>
       <c r="J58" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59">
@@ -2561,31 +2564,31 @@
         <v>67</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.063019863656175</v>
+        <v>-0.0912506486194471</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0724647064767329</v>
+        <v>0.0695551316980709</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.205</v>
+        <v>-0.227041491731893</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1118</v>
+        <v>-0.136633265955644</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.062685</v>
+        <v>-0.0913057291869481</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0141</v>
+        <v>-0.0422057030569154</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07835</v>
+        <v>0.0441910052340655</v>
       </c>
       <c r="I59" t="n">
-        <v>1.00185470895811</v>
+        <v>1002</v>
       </c>
       <c r="J59" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="60">
@@ -2593,31 +2596,31 @@
         <v>68</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.836597025</v>
+        <v>-2.30769890968078</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0909161593439259</v>
+        <v>0.0968445905631696</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.014</v>
+        <v>-2.48668086364645</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.898</v>
+        <v>-2.37560820021088</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.836</v>
+        <v>-2.30787220178168</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.775</v>
+        <v>-2.24296399521714</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.659</v>
+        <v>-2.11412409662095</v>
       </c>
       <c r="I60" t="n">
-        <v>1.0011713126938</v>
+        <v>1002</v>
       </c>
       <c r="J60" t="n">
-        <v>7600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61">
@@ -2625,31 +2628,31 @@
         <v>69</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.18947758475</v>
+        <v>-3.12624334187016</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0400575459796755</v>
+        <v>0.158236258339603</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2686</v>
+        <v>-3.43113975422046</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2164</v>
+        <v>-3.22986956246024</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1891</v>
+        <v>-3.12190565507391</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1624</v>
+        <v>-3.02165837375323</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.1117</v>
+        <v>-2.80963810083448</v>
       </c>
       <c r="I61" t="n">
-        <v>1.00182849811008</v>
+        <v>1002</v>
       </c>
       <c r="J61" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62">
@@ -2657,31 +2660,31 @@
         <v>70</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.02398845</v>
+        <v>-2.40026859208746</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0951866696504793</v>
+        <v>0.103244099075323</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.212</v>
+        <v>-2.6077824252039</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.088</v>
+        <v>-2.47057497426826</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.024</v>
+        <v>-2.39645380224458</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.96</v>
+        <v>-2.33200756425649</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.836</v>
+        <v>-2.19339718212936</v>
       </c>
       <c r="I62" t="n">
-        <v>1.00127643341953</v>
+        <v>1002</v>
       </c>
       <c r="J62" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="63">
@@ -2689,31 +2692,31 @@
         <v>71</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.175721844525</v>
+        <v>-2.41039420735569</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0460121980928649</v>
+        <v>0.221062314548366</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2648</v>
+        <v>-2.8439037709216</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.207</v>
+        <v>-2.55556890118412</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1759</v>
+        <v>-2.41234961965084</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1449</v>
+        <v>-2.26538928813087</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0852187499999999</v>
+        <v>-1.97273077995874</v>
       </c>
       <c r="I63" t="n">
-        <v>1.00214071040211</v>
+        <v>1002</v>
       </c>
       <c r="J63" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="64">
@@ -2721,31 +2724,31 @@
         <v>72</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.77479575</v>
+        <v>-2.1546337521495</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173709224004657</v>
+        <v>0.221469365936827</v>
       </c>
       <c r="D64" t="n">
-        <v>-3.123</v>
+        <v>-2.58835781510724</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.89</v>
+        <v>-2.29631188823151</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.772</v>
+        <v>-2.15955569973488</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.657</v>
+        <v>-2.01092922928364</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.439975</v>
+        <v>-1.70954917255432</v>
       </c>
       <c r="I64" t="n">
-        <v>1.00386247907731</v>
+        <v>1002</v>
       </c>
       <c r="J64" t="n">
-        <v>520</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="65">
@@ -2753,31 +2756,31 @@
         <v>73</v>
       </c>
       <c r="B65" t="n">
-        <v>0.14674017445925</v>
+        <v>-3.01964599529597</v>
       </c>
       <c r="C65" t="n">
-        <v>0.086974912467666</v>
+        <v>0.265446170233682</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02412175</v>
+        <v>-3.52984726564205</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0877175</v>
+        <v>-3.2016127773702</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1469</v>
+        <v>-3.02706678277266</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2056</v>
+        <v>-2.83252406117398</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3173</v>
+        <v>-2.4891647644192</v>
       </c>
       <c r="I65" t="n">
-        <v>1.00201775874393</v>
+        <v>1002</v>
       </c>
       <c r="J65" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66">
@@ -2785,31 +2788,31 @@
         <v>74</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.87691185</v>
+        <v>-2.71266432344153</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168369614057142</v>
+        <v>0.133209452911955</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.205</v>
+        <v>-2.98907876490307</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.992</v>
+        <v>-2.79522438584661</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.877</v>
+        <v>-2.71240773032564</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.764</v>
+        <v>-2.62136536286696</v>
       </c>
       <c r="H66" t="n">
-        <v>-2.544</v>
+        <v>-2.44698511009238</v>
       </c>
       <c r="I66" t="n">
-        <v>1.0042204962195</v>
+        <v>1002</v>
       </c>
       <c r="J66" t="n">
-        <v>460</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="67">
@@ -2817,31 +2820,31 @@
         <v>75</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3022047194325</v>
+        <v>-1.84457848082059</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107082674803193</v>
+        <v>0.0703726155566047</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09496975</v>
+        <v>-1.97979872754344</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2295</v>
+        <v>-1.89258105482916</v>
       </c>
       <c r="F67" t="n">
-        <v>0.301</v>
+        <v>-1.84482642634434</v>
       </c>
       <c r="G67" t="n">
-        <v>0.373</v>
+        <v>-1.7954588312909</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5141025</v>
+        <v>-1.71013518315349</v>
       </c>
       <c r="I67" t="n">
-        <v>1.00325021543881</v>
+        <v>1002</v>
       </c>
       <c r="J67" t="n">
-        <v>660</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="68">
@@ -2849,31 +2852,31 @@
         <v>76</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.0397349</v>
+        <v>-2.74332688887918</v>
       </c>
       <c r="C68" t="n">
-        <v>0.212750420306338</v>
+        <v>0.147982379717361</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.454</v>
+        <v>-3.03830235683199</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.182</v>
+        <v>-2.84272451601279</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.042</v>
+        <v>-2.74427877020133</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.897</v>
+        <v>-2.64746365110757</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.622</v>
+        <v>-2.45673761130002</v>
       </c>
       <c r="I68" t="n">
-        <v>1.00112319993392</v>
+        <v>1002</v>
       </c>
       <c r="J68" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="69">
@@ -2881,31 +2884,31 @@
         <v>77</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.076475067488875</v>
+        <v>-2.02652549219885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113982734554397</v>
+        <v>0.219184187898553</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3009</v>
+        <v>-2.44472611647299</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.153225</v>
+        <v>-2.16952811304843</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.07592</v>
+        <v>-2.03247156405189</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00045385</v>
+        <v>-1.8749769529745</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1459</v>
+        <v>-1.59509982622565</v>
       </c>
       <c r="I69" t="n">
-        <v>1.00098480718404</v>
+        <v>1002</v>
       </c>
       <c r="J69" t="n">
-        <v>40000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="70">
@@ -2913,31 +2916,31 @@
         <v>78</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.406397025</v>
+        <v>0.0544760808855297</v>
       </c>
       <c r="C70" t="n">
-        <v>0.26578951314486</v>
+        <v>0.0691772081340582</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.949</v>
+        <v>-0.0729289766747089</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.577</v>
+        <v>0.0077359920371744</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.4</v>
+        <v>0.0498040952114871</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.228</v>
+        <v>0.0977122444377271</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.9</v>
+        <v>0.200394446217231</v>
       </c>
       <c r="I70" t="n">
-        <v>1.00104494312532</v>
+        <v>1002</v>
       </c>
       <c r="J70" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="71">
@@ -2945,31 +2948,31 @@
         <v>79</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0670680120112975</v>
+        <v>0.156619636579727</v>
       </c>
       <c r="C71" t="n">
-        <v>0.136011483487872</v>
+        <v>0.0950531065091728</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1953025</v>
+        <v>-0.0363022715768955</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.02469</v>
+        <v>0.0918432125051222</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06567</v>
+        <v>0.157597199949974</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1566</v>
+        <v>0.222226266396792</v>
       </c>
       <c r="H71" t="n">
-        <v>0.337</v>
+        <v>0.335102986102916</v>
       </c>
       <c r="I71" t="n">
-        <v>1.00115025547762</v>
+        <v>1002</v>
       </c>
       <c r="J71" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="72">
@@ -2977,31 +2980,31 @@
         <v>80</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.520330525</v>
+        <v>-0.0270599532219494</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0674241538963419</v>
+        <v>0.0704578839634988</v>
       </c>
       <c r="D72" t="n">
-        <v>-2.652</v>
+        <v>-0.171776774761674</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.566</v>
+        <v>-0.0719292913602564</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.5205</v>
+        <v>-0.0271447072129032</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.475</v>
+        <v>0.0193603221982781</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.387</v>
+        <v>0.109903635357159</v>
       </c>
       <c r="I72" t="n">
-        <v>1.00180154585355</v>
+        <v>1002</v>
       </c>
       <c r="J72" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="73">
@@ -3009,31 +3012,31 @@
         <v>81</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.71911435</v>
+        <v>-0.0135230811468333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24441679973741</v>
+        <v>0.133821764060802</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.2</v>
+        <v>-0.286302806244853</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.849</v>
+        <v>-0.103253806781867</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.722</v>
+        <v>-0.011438045793175</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.594</v>
+        <v>0.0831671836177954</v>
       </c>
       <c r="H73" t="n">
-        <v>-2.221975</v>
+        <v>0.251350185043872</v>
       </c>
       <c r="I73" t="n">
-        <v>1.0010963114193</v>
+        <v>1002</v>
       </c>
       <c r="J73" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="74">
@@ -3041,31 +3044,31 @@
         <v>82</v>
       </c>
       <c r="B74" t="n">
-        <v>-2.85069835</v>
+        <v>0.155928202504637</v>
       </c>
       <c r="C74" t="n">
-        <v>0.192800413529805</v>
+        <v>0.124718336841856</v>
       </c>
       <c r="D74" t="n">
-        <v>-3.269</v>
+        <v>-0.094449882742148</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.961</v>
+        <v>0.0685865818495134</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.84</v>
+        <v>0.155727536195177</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.727</v>
+        <v>0.242196391808754</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.501</v>
+        <v>0.389787296077768</v>
       </c>
       <c r="I74" t="n">
-        <v>1.00103278385309</v>
+        <v>1002</v>
       </c>
       <c r="J74" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="75">
@@ -3073,31 +3076,31 @@
         <v>83</v>
       </c>
       <c r="B75" t="n">
-        <v>-2.7479469</v>
+        <v>0.179934034083428</v>
       </c>
       <c r="C75" t="n">
-        <v>0.184060324039327</v>
+        <v>0.0990106838893184</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.148025</v>
+        <v>-0.00611522484268355</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.848</v>
+        <v>0.111737725366051</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.738</v>
+        <v>0.176777155885215</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.635</v>
+        <v>0.245915330403059</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.412</v>
+        <v>0.365550806061723</v>
       </c>
       <c r="I75" t="n">
-        <v>1.00290944404949</v>
+        <v>1002</v>
       </c>
       <c r="J75" t="n">
-        <v>780</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="76">
@@ -3105,31 +3108,31 @@
         <v>84</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0362145525702575</v>
+        <v>-0.0491338452400724</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0366407950739774</v>
+        <v>0.0759646519995635</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03701025</v>
+        <v>-0.202491488152596</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01173</v>
+        <v>-0.0984023414854398</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03662</v>
+        <v>-0.0496952370840065</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06086</v>
+        <v>0.00212423707476776</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1074</v>
+        <v>0.103543508382117</v>
       </c>
       <c r="I76" t="n">
-        <v>1.00123957630142</v>
+        <v>1002</v>
       </c>
       <c r="J76" t="n">
-        <v>5600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="77">
@@ -3137,31 +3140,31 @@
         <v>85</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0347747166072</v>
+        <v>-0.198972205665938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0928213112113127</v>
+        <v>0.035737177108856</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1525</v>
+        <v>-0.268857624560563</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0192525</v>
+        <v>-0.223348814592068</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03569</v>
+        <v>-0.199339593728303</v>
       </c>
       <c r="G77" t="n">
-        <v>0.08894</v>
+        <v>-0.174673141784138</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2142025</v>
+        <v>-0.129828667876318</v>
       </c>
       <c r="I77" t="n">
-        <v>1.00223427847773</v>
+        <v>1002</v>
       </c>
       <c r="J77" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="78">
@@ -3169,31 +3172,31 @@
         <v>86</v>
       </c>
       <c r="B78" t="n">
-        <v>0.165214050634</v>
+        <v>0.131944032553373</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0852517586611566</v>
+        <v>0.0855398281506239</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002955375</v>
+        <v>-0.0193059708068058</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1093</v>
+        <v>0.0699737267644035</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1639</v>
+        <v>0.133647412161583</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2198</v>
+        <v>0.187806723085706</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3349025</v>
+        <v>0.311367784801602</v>
       </c>
       <c r="I78" t="n">
-        <v>1.00285494617451</v>
+        <v>1002</v>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="79">
@@ -3201,31 +3204,31 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>0.017418238114975</v>
+        <v>-0.0789481773687588</v>
       </c>
       <c r="C79" t="n">
-        <v>0.079396245801019</v>
+        <v>0.0931365684557471</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1387</v>
+        <v>-0.269244343694043</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.0326425</v>
+        <v>-0.137448778901514</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01755</v>
+        <v>-0.0778210353120589</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0672625</v>
+        <v>-0.0190411594457706</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1738</v>
+        <v>0.0933240020683589</v>
       </c>
       <c r="I79" t="n">
-        <v>1.00302908167762</v>
+        <v>1002</v>
       </c>
       <c r="J79" t="n">
-        <v>730</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="80">
@@ -3233,31 +3236,63 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>-58.6482815</v>
+        <v>-2.47459799837797</v>
       </c>
       <c r="C80" t="n">
-        <v>8.28447078202109</v>
+        <v>0.0604649580374603</v>
       </c>
       <c r="D80" t="n">
-        <v>-73.18</v>
+        <v>-2.58341044398793</v>
       </c>
       <c r="E80" t="n">
-        <v>-64.44</v>
+        <v>-2.5157354633957</v>
       </c>
       <c r="F80" t="n">
-        <v>-59.23</v>
+        <v>-2.47739664215754</v>
       </c>
       <c r="G80" t="n">
-        <v>-53.39</v>
+        <v>-2.43502824461786</v>
       </c>
       <c r="H80" t="n">
-        <v>-40.91</v>
+        <v>-2.35196985212272</v>
       </c>
       <c r="I80" t="n">
-        <v>1.00126548507833</v>
+        <v>1002</v>
       </c>
       <c r="J80" t="n">
-        <v>5100</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0311264723963143</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0345260439837939</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.0360873639123971</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.00723681399302825</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0318511360939685</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0540038939187927</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0980133722728181</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -3276,15 +3311,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -3292,7 +3327,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -3300,7 +3335,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -3308,7 +3343,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -3330,24 +3365,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-58.649</v>
+        <v>-63.36</v>
       </c>
       <c r="B2" t="n">
-        <v>32.05</v>
+        <v>32.74</v>
       </c>
       <c r="C2" t="n">
-        <v>-26.599</v>
+        <v>-30.62</v>
       </c>
     </row>
   </sheetData>
@@ -3366,45 +3401,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -3413,28 +3448,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.39500202175584</v>
+        <v>-2.33006830871177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10812372759168</v>
+        <v>0.10533870155035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.103772517733394</v>
+        <v>0.105924771630349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0769739957034721</v>
+        <v>0.0881247958125287</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0116907404683198</v>
+        <v>0.0110962420443137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00592499601455814</v>
+        <v>0.00776597963699988</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00402251489432989</v>
+        <v>-0.00350576567788289</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -3442,7 +3477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -3451,28 +3486,28 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.57824772385901</v>
+        <v>-2.49972872840229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125256517287666</v>
+        <v>0.122057447093382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0468565894924138</v>
+        <v>0.0391414385130606</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05928365352867</v>
+        <v>0.0517908396172799</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0156891951230354</v>
+        <v>0.0148980203909537</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00351455157570738</v>
+        <v>0.00268229106826281</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.00425682222495584</v>
+        <v>-0.00257155016007909</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -3480,7 +3515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -3489,28 +3524,28 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.13810935882744</v>
+        <v>-3.09126802584416</v>
       </c>
       <c r="F4" t="n">
-        <v>0.188580141371055</v>
+        <v>0.175312283413101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.150618291702876</v>
+        <v>0.143473106550909</v>
       </c>
       <c r="H4" t="n">
-        <v>0.122038959982672</v>
+        <v>0.117818399725227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0355624697195271</v>
+        <v>0.0307343967155154</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0148935077536523</v>
+        <v>0.0138811753138134</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0152701894491901</v>
+        <v>-0.0141763938303875</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -3518,7 +3553,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -3527,28 +3562,28 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.58822680878078</v>
+        <v>-3.48734749630726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.250481693413968</v>
+        <v>0.242367660737922</v>
       </c>
       <c r="G5" t="n">
-        <v>0.327498708634429</v>
+        <v>0.282416396265322</v>
       </c>
       <c r="H5" t="n">
-        <v>0.118770393218704</v>
+        <v>0.11231437447069</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0627410787355289</v>
+        <v>0.0587420829715727</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0141064063053257</v>
+        <v>0.0126145187127423</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0232967607253938</v>
+        <v>-0.0229317679615367</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -3556,7 +3591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -3565,28 +3600,28 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.48739851639861</v>
+        <v>-2.41945335488241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.119237197740365</v>
+        <v>0.107605083706125</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0173439251044164</v>
+        <v>-0.0399294119806398</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0858621209145547</v>
+        <v>0.0802228258285359</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0142175093249749</v>
+        <v>0.0115788540394022</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00737230380794561</v>
+        <v>0.00643570178391561</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00675677729281162</v>
+        <v>-0.00318512887970389</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -3594,7 +3629,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -3603,28 +3638,28 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.61351770303824</v>
+        <v>-2.56891849151363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0912646059721666</v>
+        <v>0.0953207574839895</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0447916602245716</v>
+        <v>-0.0434775808987697</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0750187544228287</v>
+        <v>0.101936547928577</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00832922830325483</v>
+        <v>0.00908604680732155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00562781351515267</v>
+        <v>0.0103910598035951</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00329069460677465</v>
+        <v>-0.00562530671538125</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -3632,7 +3667,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -3641,28 +3676,28 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.35992376256339</v>
+        <v>-2.28927585322432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.309719915328088</v>
+        <v>0.263546347264198</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.153144231507661</v>
+        <v>-0.107253607990594</v>
       </c>
       <c r="H8" t="n">
-        <v>0.150161873039823</v>
+        <v>0.169984735668374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0959264259508379</v>
+        <v>0.0694566771563014</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0225485881148278</v>
+        <v>0.0288948103602471</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0218092681903502</v>
+        <v>-0.0143544642403251</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -3670,7 +3705,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -3679,28 +3714,28 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.00978071494291</v>
+        <v>-2.97605246674702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.294620451678279</v>
+        <v>0.323540867216825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.138978900167005</v>
+        <v>0.137278719565766</v>
       </c>
       <c r="H9" t="n">
-        <v>0.170187449721332</v>
+        <v>0.216077907045135</v>
       </c>
       <c r="I9" t="n">
-        <v>0.086801210547113</v>
+        <v>0.104678692759415</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0289637680426511</v>
+        <v>0.0466896619130061</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0421769037283446</v>
+        <v>-0.0591706299533721</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -3708,7 +3743,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -3717,28 +3752,28 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.14218267845162</v>
+        <v>-2.0472551672577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.273912315481934</v>
+        <v>0.261938085818681</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1969390943671</v>
+        <v>0.155430830791449</v>
       </c>
       <c r="H10" t="n">
-        <v>0.161633137077179</v>
+        <v>0.172266877897778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0750279565726748</v>
+        <v>0.0686115608023547</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0261252710014103</v>
+        <v>0.0296758772206481</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0311812098035073</v>
+        <v>-0.0339121655313017</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -3746,7 +3781,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -3755,28 +3790,28 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.82367267232602</v>
+        <v>-2.6879308622404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.324682196980101</v>
+        <v>0.254893879407089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.175621856814685</v>
+        <v>0.130167622053188</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13578283802204</v>
+        <v>0.11158061989941</v>
       </c>
       <c r="I11" t="n">
-        <v>0.105418529035825</v>
+        <v>0.0649708897591956</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0184369791013194</v>
+        <v>0.0124502347371367</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0377651881515243</v>
+        <v>-0.0206858569923194</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -3784,7 +3819,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -3793,28 +3828,28 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.85084742220134</v>
+        <v>-2.76488446758512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.373118632041817</v>
+        <v>0.2959383108534</v>
       </c>
       <c r="G12" t="n">
-        <v>0.191139707450786</v>
+        <v>0.174964827340232</v>
       </c>
       <c r="H12" t="n">
-        <v>0.184639301058125</v>
+        <v>0.114840037842542</v>
       </c>
       <c r="I12" t="n">
-        <v>0.139217513576757</v>
+        <v>0.0875794838307637</v>
       </c>
       <c r="J12" t="n">
-        <v>0.034091671495233</v>
+        <v>0.0131882342916765</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0563951175806997</v>
+        <v>-0.0198566769345156</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -3822,7 +3857,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -3831,28 +3866,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.00779465950803</v>
+        <v>-3.92419203737332</v>
       </c>
       <c r="F13" t="n">
-        <v>0.628093159789506</v>
+        <v>0.494772230509085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375222007563247</v>
+        <v>0.360426783558681</v>
       </c>
       <c r="H13" t="n">
-        <v>0.244402793342619</v>
+        <v>0.187127507302931</v>
       </c>
       <c r="I13" t="n">
-        <v>0.394501017374366</v>
+        <v>0.244799560082935</v>
       </c>
       <c r="J13" t="n">
-        <v>0.059732725393675</v>
+        <v>0.0350167039894086</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.14457190032534</v>
+        <v>-0.0810677652745029</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -3860,7 +3895,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
@@ -3869,28 +3904,28 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.84402157787172</v>
+        <v>-2.79738339481437</v>
       </c>
       <c r="F14" t="n">
-        <v>0.166400404319523</v>
+        <v>0.171698196289065</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0114217344621236</v>
+        <v>-0.0139801110920569</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0918101730715185</v>
+        <v>0.105889677952872</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0276890945577009</v>
+        <v>0.0294802706089184</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00842910787942218</v>
+        <v>0.011212623896963</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.00936032305604423</v>
+        <v>-0.0116199924086907</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -3898,7 +3933,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
@@ -3907,28 +3942,28 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.01920941114309</v>
+        <v>-2.95410791709162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1957543823296</v>
+        <v>0.173133254677496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0688710722139505</v>
+        <v>0.0556593266224006</v>
       </c>
       <c r="H15" t="n">
-        <v>0.106918285891009</v>
+        <v>0.0926145582214106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0383197782012431</v>
+        <v>0.0299751238752225</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0114315198578715</v>
+        <v>0.00857745639454706</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0153403431417579</v>
+        <v>-0.0112536040524681</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -3936,7 +3971,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -3945,28 +3980,28 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.8473150791631</v>
+        <v>-2.79756053367509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.144695958439284</v>
+        <v>0.119642980975563</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0750160783595377</v>
+        <v>-0.0884476008590871</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0858304841970044</v>
+        <v>0.0838583312620675</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0209369203886629</v>
+        <v>0.014314442896719</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00736687201749222</v>
+        <v>0.00703221972205866</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00586329307363494</v>
+        <v>-0.00234476540435095</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
@@ -3974,7 +4009,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>8</v>
@@ -3983,28 +4018,28 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.83658401006587</v>
+        <v>-1.8496768167544</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0953889499198419</v>
+        <v>0.0713815590614557</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.197722113791001</v>
+        <v>-0.201232123211273</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0419833442232253</v>
+        <v>0.036854147082554</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00909905176681011</v>
+        <v>0.00509532697404409</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00176260119216583</v>
+        <v>0.00135822815718253</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.000608601100755223</v>
+        <v>-0.000288346995536712</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -4012,7 +4047,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
         <v>8</v>
@@ -4021,28 +4056,28 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.02920667547382</v>
+        <v>-2.04690973252514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.101386015116349</v>
+        <v>0.0737316968516354</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.165252558924571</v>
+        <v>-0.171946395700535</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04858091302945</v>
+        <v>0.0388523711236188</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0102791240611726</v>
+        <v>0.00543636312062147</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00236010511077498</v>
+        <v>0.00150950674192741</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0018486256997203</v>
+        <v>-0.00158773213442984</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -4050,7 +4085,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="n">
         <v>9</v>
@@ -4059,28 +4094,28 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.88701180933812</v>
+        <v>-2.83545108599723</v>
       </c>
       <c r="F19" t="n">
-        <v>0.187647325679811</v>
+        <v>0.159160874987795</v>
       </c>
       <c r="G19" t="n">
-        <v>0.161475571525528</v>
+        <v>0.145673114301433</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0969665892615014</v>
+        <v>0.0977476357725525</v>
       </c>
       <c r="I19" t="n">
-        <v>0.035211518834785</v>
+        <v>0.0253321841268806</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00940251943300871</v>
+        <v>0.00955460029912358</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0137431723158013</v>
+        <v>-0.0120621687812353</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -4088,7 +4123,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" t="n">
         <v>9</v>
@@ -4097,28 +4132,28 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.80076969518453</v>
+        <v>-2.72194870874295</v>
       </c>
       <c r="F20" t="n">
-        <v>0.199420834984694</v>
+        <v>0.163891712200428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.300144465918335</v>
+        <v>0.255836150826446</v>
       </c>
       <c r="H20" t="n">
-        <v>0.135723151780683</v>
+        <v>0.118697956862633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0397686694259927</v>
+        <v>0.026860493327988</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0184207739292822</v>
+        <v>0.0140892049633635</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0225109028945209</v>
+        <v>-0.0149839404293542</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -4126,7 +4161,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" t="n">
         <v>10</v>
@@ -4135,28 +4170,28 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.95308165608033</v>
+        <v>-1.91600227134157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.235764186065949</v>
+        <v>0.257928758189887</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.127807148941032</v>
+        <v>-0.139560850406393</v>
       </c>
       <c r="H21" t="n">
-        <v>0.128157101154197</v>
+        <v>0.105925170492656</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0555847514313396</v>
+        <v>0.0665272443013772</v>
       </c>
       <c r="J21" t="n">
-        <v>0.016424242576247</v>
+        <v>0.0112201417438982</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.014699123668472</v>
+        <v>-0.0112609082153799</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -4164,7 +4199,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" t="n">
         <v>10</v>
@@ -4173,28 +4208,28 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.70892943143692</v>
+        <v>-2.61515646363081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.395908632478748</v>
+        <v>0.320756770614934</v>
       </c>
       <c r="G22" t="n">
-        <v>0.242382907798554</v>
+        <v>0.213278475676705</v>
       </c>
       <c r="H22" t="n">
-        <v>0.219530970391322</v>
+        <v>0.172728878584829</v>
       </c>
       <c r="I22" t="n">
-        <v>0.156743645271192</v>
+        <v>0.102884905895322</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0481938469609553</v>
+        <v>0.0298352654971725</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0662510125415888</v>
+        <v>-0.0348334841073863</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
